--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Sdc4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Sdc4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H2">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I2">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J2">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N2">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O2">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P2">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q2">
-        <v>0.007244596632222221</v>
+        <v>0.09322079687822224</v>
       </c>
       <c r="R2">
-        <v>0.06520136969</v>
+        <v>0.8389871719040001</v>
       </c>
       <c r="S2">
-        <v>1.316573067301245E-05</v>
+        <v>0.0002221900010836776</v>
       </c>
       <c r="T2">
-        <v>1.536547007849804E-05</v>
+        <v>0.0002407080844855267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H3">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I3">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J3">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P3">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q3">
-        <v>0.061798185908</v>
+        <v>1.221906904408</v>
       </c>
       <c r="R3">
-        <v>0.556183673172</v>
+        <v>10.997162139672</v>
       </c>
       <c r="S3">
-        <v>0.000112306911350551</v>
+        <v>0.002912391928694102</v>
       </c>
       <c r="T3">
-        <v>0.0001310712279344066</v>
+        <v>0.00315512074804416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H4">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I4">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J4">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N4">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O4">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P4">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q4">
-        <v>0.074266316747</v>
+        <v>1.189106009187555</v>
       </c>
       <c r="R4">
-        <v>0.668396850723</v>
+        <v>10.701954082688</v>
       </c>
       <c r="S4">
-        <v>0.0001349654610194237</v>
+        <v>0.002834211617125892</v>
       </c>
       <c r="T4">
-        <v>0.0001575155837856845</v>
+        <v>0.003070424618829155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H5">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I5">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J5">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N5">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O5">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P5">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q5">
-        <v>0.155230634637</v>
+        <v>1.299027626399</v>
       </c>
       <c r="R5">
-        <v>0.931383807822</v>
+        <v>7.794165758394</v>
       </c>
       <c r="S5">
-        <v>0.0002821033152821158</v>
+        <v>0.00309620770668127</v>
       </c>
       <c r="T5">
-        <v>0.0002194915551426128</v>
+        <v>0.002236170912611253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H6">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I6">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J6">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N6">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O6">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P6">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q6">
-        <v>0.07496383330444444</v>
+        <v>1.825227041376667</v>
       </c>
       <c r="R6">
-        <v>0.6746744997399999</v>
+        <v>16.42704337239</v>
       </c>
       <c r="S6">
-        <v>0.000136233069914919</v>
+        <v>0.004350394030971657</v>
       </c>
       <c r="T6">
-        <v>0.0001589949856539679</v>
+        <v>0.004712970920586504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.863179</v>
       </c>
       <c r="I7">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J7">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N7">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O7">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P7">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q7">
-        <v>10.49388329865667</v>
+        <v>6.829241004917334</v>
       </c>
       <c r="R7">
-        <v>94.44494968790998</v>
+        <v>61.463169044256</v>
       </c>
       <c r="S7">
-        <v>0.01907071549154805</v>
+        <v>0.01627736639352589</v>
       </c>
       <c r="T7">
-        <v>0.02225706385302217</v>
+        <v>0.01763397842362462</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.863179</v>
       </c>
       <c r="I8">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J8">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P8">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q8">
         <v>89.51539801441201</v>
@@ -948,10 +948,10 @@
         <v>805.638582129708</v>
       </c>
       <c r="S8">
-        <v>0.162677879966901</v>
+        <v>0.2133582531783152</v>
       </c>
       <c r="T8">
-        <v>0.1898582128972699</v>
+        <v>0.2311402681545018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>14.863179</v>
       </c>
       <c r="I9">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J9">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N9">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O9">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P9">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q9">
-        <v>107.575631954133</v>
+        <v>87.11244474498132</v>
       </c>
       <c r="R9">
-        <v>968.180687587197</v>
+        <v>784.0120027048318</v>
       </c>
       <c r="S9">
-        <v>0.1954990552528229</v>
+        <v>0.2076308596414814</v>
       </c>
       <c r="T9">
-        <v>0.2281631728970008</v>
+        <v>0.2249355338252245</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>14.863179</v>
       </c>
       <c r="I10">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J10">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N10">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O10">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P10">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q10">
-        <v>224.853397221843</v>
+        <v>95.1651673211235</v>
       </c>
       <c r="R10">
-        <v>1349.120383331058</v>
+        <v>570.991003926741</v>
       </c>
       <c r="S10">
-        <v>0.4086299650649569</v>
+        <v>0.22682437115219</v>
       </c>
       <c r="T10">
-        <v>0.317936095222008</v>
+        <v>0.1638191326593969</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>14.863179</v>
       </c>
       <c r="I11">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J11">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N11">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O11">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P11">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q11">
-        <v>108.5859928788733</v>
+        <v>133.713889729315</v>
       </c>
       <c r="R11">
-        <v>977.2739359098599</v>
+        <v>1203.425007563835</v>
       </c>
       <c r="S11">
-        <v>0.1973352016241063</v>
+        <v>0.3187045197936934</v>
       </c>
       <c r="T11">
-        <v>0.2303061038765575</v>
+        <v>0.3452664570964581</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H12">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I12">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J12">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N12">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O12">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P12">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q12">
-        <v>0.1719259064333334</v>
+        <v>0.02633060430933334</v>
       </c>
       <c r="R12">
-        <v>1.0315554386</v>
+        <v>0.236975438784</v>
       </c>
       <c r="S12">
-        <v>0.0003124439212732933</v>
+        <v>6.275849591446048E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002430981787879712</v>
+        <v>6.798900608976269E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H13">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I13">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J13">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P13">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q13">
-        <v>1.46657014428</v>
+        <v>0.3451327201680001</v>
       </c>
       <c r="R13">
-        <v>8.799420865680002</v>
+        <v>3.106194481512</v>
       </c>
       <c r="S13">
-        <v>0.002665223270926097</v>
+        <v>0.0008226172918079324</v>
       </c>
       <c r="T13">
-        <v>0.002073687081461025</v>
+        <v>0.0008911770629191698</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,19 +1281,19 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H14">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I14">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J14">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N14">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O14">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P14">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q14">
-        <v>1.76245890177</v>
+        <v>0.3358679700053333</v>
       </c>
       <c r="R14">
-        <v>10.57475341062</v>
+        <v>3.022811730048</v>
       </c>
       <c r="S14">
-        <v>0.003202947023958664</v>
+        <v>0.0008005349355353073</v>
       </c>
       <c r="T14">
-        <v>0.002492065088370336</v>
+        <v>0.0008672542866763777</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H15">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I15">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J15">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N15">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O15">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P15">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q15">
-        <v>3.683872121670001</v>
+        <v>0.3669157909290001</v>
       </c>
       <c r="R15">
-        <v>14.73548848668</v>
+        <v>2.201494745574</v>
       </c>
       <c r="S15">
-        <v>0.00669476447757022</v>
+        <v>0.0008745368277706539</v>
       </c>
       <c r="T15">
-        <v>0.00347259127393546</v>
+        <v>0.0006316158350901515</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H16">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I16">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J16">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N16">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O16">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P16">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q16">
-        <v>1.779012089266667</v>
+        <v>0.5155430184100001</v>
       </c>
       <c r="R16">
-        <v>10.6740725356</v>
+        <v>4.63988716569</v>
       </c>
       <c r="S16">
-        <v>0.003233029417696318</v>
+        <v>0.001228787005209141</v>
       </c>
       <c r="T16">
-        <v>0.002515470808991828</v>
+        <v>0.001331198365462034</v>
       </c>
     </row>
   </sheetData>
